--- a/src/main/resources/CompilerDictionary/LocatorDictionary/ContactPage.xlsx
+++ b/src/main/resources/CompilerDictionary/LocatorDictionary/ContactPage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gurcharan/Desktop/CouchBase/src/main/resources/CompilerDictionary/LocatorDictionary/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gurcharan/Desktop/Mobile-Web-Automation/src/main/resources/CompilerDictionary/LocatorDictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF790E1-918F-714D-AD3C-C810C35259FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D6FFB4-ABCC-6349-A75D-D89B991894F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="19140" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="60">
   <si>
     <t>Sno</t>
   </si>
@@ -191,13 +191,22 @@
   </si>
   <si>
     <t>div.mktoCheckboxList label</t>
+  </si>
+  <si>
+    <t>Locator Type</t>
+  </si>
+  <si>
+    <t>Xpath</t>
+  </si>
+  <si>
+    <t>CSS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +221,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -234,10 +250,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,19 +559,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="64.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,8 +582,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -575,8 +596,11 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -586,8 +610,11 @@
       <c r="C3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -597,8 +624,11 @@
       <c r="C4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -608,8 +638,11 @@
       <c r="C5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -619,8 +652,11 @@
       <c r="C6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -630,8 +666,11 @@
       <c r="C7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -641,8 +680,11 @@
       <c r="C8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -652,8 +694,11 @@
       <c r="C9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -663,8 +708,11 @@
       <c r="C10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -674,8 +722,11 @@
       <c r="C11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -685,8 +736,11 @@
       <c r="C12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -696,8 +750,11 @@
       <c r="C13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -707,8 +764,11 @@
       <c r="C14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -718,8 +778,11 @@
       <c r="C15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -729,8 +792,11 @@
       <c r="C16" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -740,8 +806,11 @@
       <c r="C17" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -751,8 +820,11 @@
       <c r="C18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -762,8 +834,11 @@
       <c r="C19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -773,8 +848,11 @@
       <c r="C20" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -784,8 +862,11 @@
       <c r="C21" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -795,8 +876,11 @@
       <c r="C22" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -806,8 +890,11 @@
       <c r="C23" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -817,8 +904,11 @@
       <c r="C24" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -828,8 +918,11 @@
       <c r="C25" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -839,8 +932,11 @@
       <c r="C26" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -850,8 +946,11 @@
       <c r="C27" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -860,6 +959,9 @@
       </c>
       <c r="C28" t="s">
         <v>56</v>
+      </c>
+      <c r="D28" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
